--- a/WebAPI/eFMS.API.SystemWeb/CatalogueManagement/eFMS.API.Catalogue/Resources/Files/CountryImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/CatalogueManagement/eFMS.API.Catalogue/Resources/Files/CountryImportTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Country Code</t>
   </si>
@@ -37,70 +37,7 @@
     <t>Việt Nam</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vương Quốc Anh </t>
-  </si>
-  <si>
     <t>Active</t>
-  </si>
-  <si>
-    <t>sgp</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>United State of America</t>
-  </si>
-  <si>
-    <t>Hoa Kỳ</t>
-  </si>
-  <si>
-    <t>LAOS</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Lào</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SKRA</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Hàn Quốc</t>
-  </si>
-  <si>
-    <t>NKRA</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>Triều Tiên</t>
-  </si>
-  <si>
-    <t>MALS</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>tttt</t>
-  </si>
-  <si>
-    <t>ttttt</t>
   </si>
 </sst>
 </file>
@@ -504,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,119 +478,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
